--- a/michael_jordan_per_game_averages.xlsx
+++ b/michael_jordan_per_game_averages.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
   <si>
     <t>seas_id</t>
   </si>
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>player_id</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2003</t>
@@ -596,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,22 +720,28 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>18568</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2193</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>1964</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>39</v>
@@ -741,10 +750,10 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>82</v>
@@ -822,30 +831,36 @@
         <v>20</v>
       </c>
       <c r="AJ2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM2">
+        <v>2003</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>18076</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2193</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>1964</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>38</v>
@@ -854,10 +869,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3">
         <v>60</v>
@@ -935,30 +950,36 @@
         <v>22.9</v>
       </c>
       <c r="AJ3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM3">
+        <v>2002</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>16041</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>2193</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>1964</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>34</v>
@@ -967,10 +988,10 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4">
         <v>82</v>
@@ -1048,30 +1069,36 @@
         <v>28.7</v>
       </c>
       <c r="AJ4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM4">
+        <v>1998</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>15484</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2193</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>1964</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -1080,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5">
         <v>82</v>
@@ -1161,30 +1188,36 @@
         <v>29.6</v>
       </c>
       <c r="AJ5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM5">
+        <v>1997</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>14913</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2193</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>1964</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>32</v>
@@ -1193,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6">
         <v>82</v>
@@ -1274,30 +1307,36 @@
         <v>30.4</v>
       </c>
       <c r="AJ6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM6">
+        <v>1996</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>14392</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>2193</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>1964</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>31</v>
@@ -1306,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>17</v>
@@ -1387,30 +1426,36 @@
         <v>26.9</v>
       </c>
       <c r="AJ7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL7" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM7">
+        <v>1995</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>13459</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>2193</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>1964</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -1419,10 +1464,10 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8">
         <v>78</v>
@@ -1500,30 +1545,36 @@
         <v>32.6</v>
       </c>
       <c r="AJ8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM8">
+        <v>1993</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>12990</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>2193</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>1964</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1532,10 +1583,10 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <v>80</v>
@@ -1613,30 +1664,36 @@
         <v>30.1</v>
       </c>
       <c r="AJ9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM9">
+        <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>12543</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>2193</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>1964</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>27</v>
@@ -1645,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10">
         <v>82</v>
@@ -1726,30 +1783,36 @@
         <v>31.5</v>
       </c>
       <c r="AJ10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM10">
+        <v>1991</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>12079</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2193</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>1964</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>26</v>
@@ -1758,10 +1821,10 @@
         <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>82</v>
@@ -1839,30 +1902,36 @@
         <v>33.6</v>
       </c>
       <c r="AJ11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM11">
+        <v>1990</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>11647</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2193</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>1964</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12">
         <v>25</v>
@@ -1871,10 +1940,10 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12">
         <v>81</v>
@@ -1952,30 +2021,36 @@
         <v>32.5</v>
       </c>
       <c r="AJ12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM12">
+        <v>1989</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>11208</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>2193</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>1964</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -1984,10 +2059,10 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13">
         <v>82</v>
@@ -2065,30 +2140,36 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM13">
+        <v>1988</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>10813</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2193</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>1964</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>23</v>
@@ -2097,10 +2178,10 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14">
         <v>82</v>
@@ -2178,30 +2259,36 @@
         <v>37.1</v>
       </c>
       <c r="AJ14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM14">
+        <v>1987</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>10425</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>2193</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>1964</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>22</v>
@@ -2210,10 +2297,10 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15">
         <v>18</v>
@@ -2291,30 +2378,36 @@
         <v>22.7</v>
       </c>
       <c r="AJ15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM15">
+        <v>1986</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>10057</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>2193</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>1964</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>21</v>
@@ -2323,10 +2416,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K16">
         <v>82</v>
@@ -2404,13 +2497,16 @@
         <v>28.2</v>
       </c>
       <c r="AJ16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AM16">
+        <v>1985</v>
       </c>
     </row>
   </sheetData>

--- a/michael_jordan_per_game_averages.xlsx
+++ b/michael_jordan_per_game_averages.xlsx
@@ -738,13 +738,13 @@
         <v>54</v>
       </c>
       <c r="E2">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -857,13 +857,13 @@
         <v>54</v>
       </c>
       <c r="E3">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -976,13 +976,13 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>13</v>
@@ -1095,13 +1095,13 @@
         <v>54</v>
       </c>
       <c r="E5">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -1214,13 +1214,13 @@
         <v>54</v>
       </c>
       <c r="E6">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -1333,13 +1333,13 @@
         <v>54</v>
       </c>
       <c r="E7">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1452,13 +1452,13 @@
         <v>54</v>
       </c>
       <c r="E8">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
       </c>
       <c r="G8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>9</v>
@@ -1571,13 +1571,13 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -1690,13 +1690,13 @@
         <v>54</v>
       </c>
       <c r="E10">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -1809,13 +1809,13 @@
         <v>54</v>
       </c>
       <c r="E11">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1928,13 +1928,13 @@
         <v>54</v>
       </c>
       <c r="E12">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -2047,13 +2047,13 @@
         <v>54</v>
       </c>
       <c r="E13">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -2166,13 +2166,13 @@
         <v>54</v>
       </c>
       <c r="E14">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>54</v>
       </c>
       <c r="E15">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2404,13 +2404,13 @@
         <v>54</v>
       </c>
       <c r="E16">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>1</v>

--- a/michael_jordan_per_game_averages.xlsx
+++ b/michael_jordan_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id</t>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year</t>
+    <t>birth_year_x</t>
   </si>
   <si>
     <t>pos</t>

--- a/michael_jordan_per_game_averages.xlsx
+++ b/michael_jordan_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id_x</t>
+    <t>player_id</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year_x</t>
+    <t>birth_year</t>
   </si>
   <si>
     <t>pos</t>
@@ -133,112 +133,112 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
-    <t>2002</t>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1990</t>
   </si>
   <si>
     <t>1998</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
     <t>Michael Jordan</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>NBA</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>CHI</t>
+    <t>1992-93</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1995-06</t>
+  </si>
+  <si>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>1985-86</t>
+  </si>
+  <si>
+    <t>1986-87</t>
   </si>
   <si>
     <t>2002-03</t>
   </si>
   <si>
-    <t>2001-02</t>
+    <t>1991-92</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1994-95</t>
+  </si>
+  <si>
+    <t>1988-89</t>
+  </si>
+  <si>
+    <t>1984-85</t>
+  </si>
+  <si>
+    <t>1989-90</t>
   </si>
   <si>
     <t>1997-98</t>
-  </si>
-  <si>
-    <t>1996-97</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>1994-95</t>
-  </si>
-  <si>
-    <t>1992-93</t>
-  </si>
-  <si>
-    <t>1991-92</t>
-  </si>
-  <si>
-    <t>1990-91</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1986-87</t>
-  </si>
-  <si>
-    <t>1985-86</t>
-  </si>
-  <si>
-    <t>1984-85</t>
   </si>
   <si>
     <t>No</t>
@@ -726,13 +726,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>18568</v>
+        <v>13459</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -744,10 +744,10 @@
         <v>55</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
@@ -756,79 +756,79 @@
         <v>58</v>
       </c>
       <c r="K2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="M2">
-        <v>37</v>
+        <v>39.3</v>
       </c>
       <c r="N2">
-        <v>8.300000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="O2">
-        <v>18.6</v>
+        <v>25.7</v>
       </c>
       <c r="P2">
-        <v>0.445</v>
+        <v>0.495</v>
       </c>
       <c r="Q2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="S2">
-        <v>0.291</v>
+        <v>0.352</v>
       </c>
       <c r="T2">
-        <v>8.1</v>
+        <v>11.7</v>
       </c>
       <c r="U2">
-        <v>18</v>
+        <v>22.7</v>
       </c>
       <c r="V2">
-        <v>0.45</v>
+        <v>0.514</v>
       </c>
       <c r="W2">
-        <v>0.45</v>
+        <v>0.515</v>
       </c>
       <c r="X2">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="Z2">
-        <v>0.821</v>
+        <v>0.837</v>
       </c>
       <c r="AA2">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB2">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AC2">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AD2">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="AE2">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="AF2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AG2">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH2">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AI2">
-        <v>20</v>
+        <v>32.6</v>
       </c>
       <c r="AJ2" t="s">
         <v>60</v>
@@ -840,18 +840,18 @@
         <v>75</v>
       </c>
       <c r="AM2">
-        <v>2003</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>18076</v>
+        <v>15484</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -863,10 +863,10 @@
         <v>55</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -875,79 +875,79 @@
         <v>58</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="L3">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="M3">
-        <v>34.9</v>
+        <v>37.9</v>
       </c>
       <c r="N3">
-        <v>9.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="O3">
-        <v>22.1</v>
+        <v>23.1</v>
       </c>
       <c r="P3">
-        <v>0.416</v>
+        <v>0.486</v>
       </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="R3">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="S3">
-        <v>0.189</v>
+        <v>0.374</v>
       </c>
       <c r="T3">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="U3">
-        <v>21.2</v>
+        <v>19.5</v>
       </c>
       <c r="V3">
-        <v>0.426</v>
+        <v>0.507</v>
       </c>
       <c r="W3">
-        <v>0.42</v>
+        <v>0.516</v>
       </c>
       <c r="X3">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="Y3">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="Z3">
-        <v>0.79</v>
+        <v>0.833</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AB3">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC3">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD3">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AE3">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AF3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AG3">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AI3">
-        <v>22.9</v>
+        <v>29.6</v>
       </c>
       <c r="AJ3" t="s">
         <v>61</v>
@@ -959,18 +959,18 @@
         <v>75</v>
       </c>
       <c r="AM3">
-        <v>2002</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>16041</v>
+        <v>12543</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -979,19 +979,19 @@
         <v>1963</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>82</v>
@@ -1000,73 +1000,73 @@
         <v>82</v>
       </c>
       <c r="M4">
-        <v>38.8</v>
+        <v>37</v>
       </c>
       <c r="N4">
-        <v>10.7</v>
+        <v>12.1</v>
       </c>
       <c r="O4">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="P4">
-        <v>0.465</v>
+        <v>0.539</v>
       </c>
       <c r="Q4">
         <v>0.4</v>
       </c>
       <c r="R4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="S4">
-        <v>0.238</v>
+        <v>0.312</v>
       </c>
       <c r="T4">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="U4">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V4">
-        <v>0.482</v>
+        <v>0.551</v>
       </c>
       <c r="W4">
-        <v>0.473</v>
+        <v>0.547</v>
       </c>
       <c r="X4">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y4">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z4">
-        <v>0.784</v>
+        <v>0.851</v>
       </c>
       <c r="AA4">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB4">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AC4">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD4">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE4">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AF4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AH4">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AI4">
-        <v>28.7</v>
+        <v>31.5</v>
       </c>
       <c r="AJ4" t="s">
         <v>62</v>
@@ -1078,18 +1078,18 @@
         <v>75</v>
       </c>
       <c r="AM4">
-        <v>1998</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>15484</v>
+        <v>14913</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -1098,19 +1098,19 @@
         <v>1963</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>82</v>
@@ -1119,73 +1119,73 @@
         <v>82</v>
       </c>
       <c r="M5">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="N5">
         <v>11.2</v>
       </c>
       <c r="O5">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="P5">
-        <v>0.486</v>
+        <v>0.495</v>
       </c>
       <c r="Q5">
         <v>1.4</v>
       </c>
       <c r="R5">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="S5">
-        <v>0.374</v>
+        <v>0.427</v>
       </c>
       <c r="T5">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U5">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V5">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="W5">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="X5">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="Y5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z5">
-        <v>0.833</v>
+        <v>0.834</v>
       </c>
       <c r="AA5">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB5">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC5">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD5">
         <v>4.3</v>
       </c>
       <c r="AE5">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AF5">
         <v>0.5</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH5">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI5">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="AJ5" t="s">
         <v>63</v>
@@ -1197,18 +1197,18 @@
         <v>75</v>
       </c>
       <c r="AM5">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>14913</v>
+        <v>18076</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -1220,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
@@ -1232,79 +1232,79 @@
         <v>59</v>
       </c>
       <c r="K6">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>37.7</v>
+        <v>34.9</v>
       </c>
       <c r="N6">
-        <v>11.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O6">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="P6">
-        <v>0.495</v>
+        <v>0.416</v>
       </c>
       <c r="Q6">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="S6">
-        <v>0.427</v>
+        <v>0.189</v>
       </c>
       <c r="T6">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>19.4</v>
+        <v>21.2</v>
       </c>
       <c r="V6">
-        <v>0.506</v>
+        <v>0.426</v>
       </c>
       <c r="W6">
-        <v>0.525</v>
+        <v>0.42</v>
       </c>
       <c r="X6">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="Y6">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="Z6">
-        <v>0.834</v>
+        <v>0.79</v>
       </c>
       <c r="AA6">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
         <v>4.8</v>
       </c>
       <c r="AC6">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD6">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE6">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="AF6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AG6">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AH6">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI6">
-        <v>30.4</v>
+        <v>22.9</v>
       </c>
       <c r="AJ6" t="s">
         <v>64</v>
@@ -1316,18 +1316,18 @@
         <v>75</v>
       </c>
       <c r="AM6">
-        <v>1996</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>14392</v>
+        <v>10425</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -1336,94 +1336,94 @@
         <v>1963</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>39.3</v>
+        <v>25.1</v>
       </c>
       <c r="N7">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O7">
-        <v>23.8</v>
+        <v>18.2</v>
       </c>
       <c r="P7">
-        <v>0.411</v>
+        <v>0.457</v>
       </c>
       <c r="Q7">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>0.167</v>
       </c>
       <c r="T7">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U7">
-        <v>21.9</v>
+        <v>17.2</v>
       </c>
       <c r="V7">
-        <v>0.403</v>
+        <v>0.474</v>
       </c>
       <c r="W7">
-        <v>0.431</v>
+        <v>0.462</v>
       </c>
       <c r="X7">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="Z7">
-        <v>0.801</v>
+        <v>0.84</v>
       </c>
       <c r="AA7">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB7">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="AC7">
-        <v>6.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD7">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="AE7">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AF7">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AG7">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH7">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AI7">
-        <v>26.9</v>
+        <v>22.7</v>
       </c>
       <c r="AJ7" t="s">
         <v>65</v>
@@ -1435,18 +1435,18 @@
         <v>75</v>
       </c>
       <c r="AM7">
-        <v>1995</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>13459</v>
+        <v>10813</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1455,94 +1455,94 @@
         <v>1963</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M8">
-        <v>39.3</v>
+        <v>40</v>
       </c>
       <c r="N8">
-        <v>12.7</v>
+        <v>13.4</v>
       </c>
       <c r="O8">
-        <v>25.7</v>
+        <v>27.8</v>
       </c>
       <c r="P8">
-        <v>0.495</v>
+        <v>0.482</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
+        <v>0.8</v>
+      </c>
+      <c r="S8">
+        <v>0.182</v>
+      </c>
+      <c r="T8">
+        <v>13.2</v>
+      </c>
+      <c r="U8">
+        <v>27</v>
+      </c>
+      <c r="V8">
+        <v>0.491</v>
+      </c>
+      <c r="W8">
+        <v>0.484</v>
+      </c>
+      <c r="X8">
+        <v>10.2</v>
+      </c>
+      <c r="Y8">
+        <v>11.9</v>
+      </c>
+      <c r="Z8">
+        <v>0.857</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>3.2</v>
+      </c>
+      <c r="AC8">
+        <v>5.2</v>
+      </c>
+      <c r="AD8">
+        <v>4.6</v>
+      </c>
+      <c r="AE8">
         <v>2.9</v>
       </c>
-      <c r="S8">
-        <v>0.352</v>
-      </c>
-      <c r="T8">
-        <v>11.7</v>
-      </c>
-      <c r="U8">
-        <v>22.7</v>
-      </c>
-      <c r="V8">
-        <v>0.514</v>
-      </c>
-      <c r="W8">
-        <v>0.515</v>
-      </c>
-      <c r="X8">
-        <v>6.1</v>
-      </c>
-      <c r="Y8">
-        <v>7.3</v>
-      </c>
-      <c r="Z8">
-        <v>0.837</v>
-      </c>
-      <c r="AA8">
-        <v>1.7</v>
-      </c>
-      <c r="AB8">
-        <v>5</v>
-      </c>
-      <c r="AC8">
-        <v>6.7</v>
-      </c>
-      <c r="AD8">
-        <v>5.5</v>
-      </c>
-      <c r="AE8">
-        <v>2.8</v>
-      </c>
       <c r="AF8">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AG8">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AH8">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AI8">
-        <v>32.6</v>
+        <v>37.1</v>
       </c>
       <c r="AJ8" t="s">
         <v>66</v>
@@ -1554,18 +1554,18 @@
         <v>75</v>
       </c>
       <c r="AM8">
-        <v>1993</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>12990</v>
+        <v>18568</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -1577,10 +1577,10 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -1589,79 +1589,79 @@
         <v>59</v>
       </c>
       <c r="K9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L9">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>38.8</v>
+        <v>37</v>
       </c>
       <c r="N9">
-        <v>11.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O9">
-        <v>22.7</v>
+        <v>18.6</v>
       </c>
       <c r="P9">
-        <v>0.519</v>
+        <v>0.445</v>
       </c>
       <c r="Q9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="S9">
-        <v>0.27</v>
+        <v>0.291</v>
       </c>
       <c r="T9">
-        <v>11.5</v>
+        <v>8.1</v>
       </c>
       <c r="U9">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="V9">
-        <v>0.533</v>
+        <v>0.45</v>
       </c>
       <c r="W9">
-        <v>0.526</v>
+        <v>0.45</v>
       </c>
       <c r="X9">
+        <v>3.2</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>0.821</v>
+      </c>
+      <c r="AA9">
+        <v>0.9</v>
+      </c>
+      <c r="AB9">
+        <v>5.2</v>
+      </c>
+      <c r="AC9">
         <v>6.1</v>
       </c>
-      <c r="Y9">
-        <v>7.4</v>
-      </c>
-      <c r="Z9">
-        <v>0.832</v>
-      </c>
-      <c r="AA9">
-        <v>1.1</v>
-      </c>
-      <c r="AB9">
-        <v>5.3</v>
-      </c>
-      <c r="AC9">
-        <v>6.4</v>
-      </c>
       <c r="AD9">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="AE9">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AF9">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AG9">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AI9">
-        <v>30.1</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s">
         <v>67</v>
@@ -1673,18 +1673,18 @@
         <v>75</v>
       </c>
       <c r="AM9">
-        <v>1992</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>12543</v>
+        <v>12990</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -1693,94 +1693,94 @@
         <v>1963</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L10">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>38.8</v>
       </c>
       <c r="N10">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="O10">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="P10">
-        <v>0.539</v>
+        <v>0.519</v>
       </c>
       <c r="Q10">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R10">
+        <v>1.3</v>
+      </c>
+      <c r="S10">
+        <v>0.27</v>
+      </c>
+      <c r="T10">
+        <v>11.5</v>
+      </c>
+      <c r="U10">
+        <v>21.5</v>
+      </c>
+      <c r="V10">
+        <v>0.533</v>
+      </c>
+      <c r="W10">
+        <v>0.526</v>
+      </c>
+      <c r="X10">
+        <v>6.1</v>
+      </c>
+      <c r="Y10">
+        <v>7.4</v>
+      </c>
+      <c r="Z10">
+        <v>0.832</v>
+      </c>
+      <c r="AA10">
         <v>1.1</v>
       </c>
-      <c r="S10">
-        <v>0.312</v>
-      </c>
-      <c r="T10">
-        <v>11.7</v>
-      </c>
-      <c r="U10">
-        <v>21.3</v>
-      </c>
-      <c r="V10">
-        <v>0.551</v>
-      </c>
-      <c r="W10">
-        <v>0.547</v>
-      </c>
-      <c r="X10">
-        <v>7</v>
-      </c>
-      <c r="Y10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z10">
-        <v>0.851</v>
-      </c>
-      <c r="AA10">
-        <v>1.4</v>
-      </c>
       <c r="AB10">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC10">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AD10">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE10">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AG10">
         <v>2.5</v>
       </c>
       <c r="AH10">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AI10">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="AJ10" t="s">
         <v>68</v>
@@ -1792,18 +1792,18 @@
         <v>75</v>
       </c>
       <c r="AM10">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>12079</v>
+        <v>11208</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -1812,19 +1812,19 @@
         <v>1963</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11">
         <v>82</v>
@@ -1833,73 +1833,73 @@
         <v>82</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="N11">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="O11">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="P11">
-        <v>0.526</v>
+        <v>0.535</v>
       </c>
       <c r="Q11">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="S11">
-        <v>0.376</v>
+        <v>0.132</v>
       </c>
       <c r="T11">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="U11">
-        <v>21</v>
+        <v>23.7</v>
       </c>
       <c r="V11">
-        <v>0.548</v>
+        <v>0.546</v>
       </c>
       <c r="W11">
-        <v>0.55</v>
+        <v>0.537</v>
       </c>
       <c r="X11">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y11">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z11">
-        <v>0.848</v>
+        <v>0.841</v>
       </c>
       <c r="AA11">
         <v>1.7</v>
       </c>
       <c r="AB11">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="AC11">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="AD11">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AE11">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AF11">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AG11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AH11">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AI11">
-        <v>33.6</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="s">
         <v>69</v>
@@ -1911,18 +1911,18 @@
         <v>75</v>
       </c>
       <c r="AM11">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>11647</v>
+        <v>14392</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -1931,94 +1931,94 @@
         <v>1963</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="L12">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>40.2</v>
+        <v>39.3</v>
       </c>
       <c r="N12">
-        <v>11.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O12">
-        <v>22.2</v>
+        <v>23.8</v>
       </c>
       <c r="P12">
-        <v>0.538</v>
+        <v>0.411</v>
       </c>
       <c r="Q12">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="R12">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>0.276</v>
+        <v>0.5</v>
       </c>
       <c r="T12">
-        <v>11.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U12">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="V12">
-        <v>0.553</v>
+        <v>0.403</v>
       </c>
       <c r="W12">
-        <v>0.546</v>
+        <v>0.431</v>
       </c>
       <c r="X12">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="Y12">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z12">
-        <v>0.85</v>
+        <v>0.801</v>
       </c>
       <c r="AA12">
+        <v>1.5</v>
+      </c>
+      <c r="AB12">
+        <v>5.4</v>
+      </c>
+      <c r="AC12">
+        <v>6.9</v>
+      </c>
+      <c r="AD12">
+        <v>5.3</v>
+      </c>
+      <c r="AE12">
         <v>1.8</v>
-      </c>
-      <c r="AB12">
-        <v>6.2</v>
-      </c>
-      <c r="AC12">
-        <v>8</v>
-      </c>
-      <c r="AD12">
-        <v>8</v>
-      </c>
-      <c r="AE12">
-        <v>2.9</v>
       </c>
       <c r="AF12">
         <v>0.8</v>
       </c>
       <c r="AG12">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="AH12">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AI12">
-        <v>32.5</v>
+        <v>26.9</v>
       </c>
       <c r="AJ12" t="s">
         <v>70</v>
@@ -2030,18 +2030,18 @@
         <v>75</v>
       </c>
       <c r="AM12">
-        <v>1989</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>11208</v>
+        <v>11647</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -2050,94 +2050,94 @@
         <v>1963</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="O13">
-        <v>24.4</v>
+        <v>22.2</v>
       </c>
       <c r="P13">
-        <v>0.535</v>
+        <v>0.538</v>
       </c>
       <c r="Q13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="R13">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="S13">
-        <v>0.132</v>
+        <v>0.276</v>
       </c>
       <c r="T13">
-        <v>13</v>
+        <v>11.6</v>
       </c>
       <c r="U13">
-        <v>23.7</v>
+        <v>21</v>
       </c>
       <c r="V13">
+        <v>0.553</v>
+      </c>
+      <c r="W13">
         <v>0.546</v>
       </c>
-      <c r="W13">
-        <v>0.537</v>
-      </c>
       <c r="X13">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y13">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z13">
-        <v>0.841</v>
+        <v>0.85</v>
       </c>
       <c r="AA13">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB13">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC13">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AE13">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AF13">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AG13">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AH13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AI13">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
@@ -2149,18 +2149,18 @@
         <v>75</v>
       </c>
       <c r="AM13">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>10813</v>
+        <v>10057</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -2169,19 +2169,19 @@
         <v>1963</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14">
         <v>82</v>
@@ -2190,73 +2190,73 @@
         <v>82</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>38.3</v>
       </c>
       <c r="N14">
-        <v>13.4</v>
+        <v>10.2</v>
       </c>
       <c r="O14">
-        <v>27.8</v>
+        <v>19.8</v>
       </c>
       <c r="P14">
-        <v>0.482</v>
+        <v>0.515</v>
       </c>
       <c r="Q14">
         <v>0.1</v>
       </c>
       <c r="R14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="S14">
-        <v>0.182</v>
+        <v>0.173</v>
       </c>
       <c r="T14">
-        <v>13.2</v>
+        <v>10.1</v>
       </c>
       <c r="U14">
-        <v>27</v>
+        <v>19.2</v>
       </c>
       <c r="V14">
-        <v>0.491</v>
+        <v>0.526</v>
       </c>
       <c r="W14">
-        <v>0.484</v>
+        <v>0.518</v>
       </c>
       <c r="X14">
-        <v>10.2</v>
+        <v>7.7</v>
       </c>
       <c r="Y14">
-        <v>11.9</v>
+        <v>9.1</v>
       </c>
       <c r="Z14">
-        <v>0.857</v>
+        <v>0.845</v>
       </c>
       <c r="AA14">
         <v>2</v>
       </c>
       <c r="AB14">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AC14">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="AD14">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE14">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AF14">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AG14">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AH14">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AI14">
-        <v>37.1</v>
+        <v>28.2</v>
       </c>
       <c r="AJ14" t="s">
         <v>72</v>
@@ -2268,18 +2268,18 @@
         <v>75</v>
       </c>
       <c r="AM14">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>10425</v>
+        <v>12079</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -2288,94 +2288,94 @@
         <v>1963</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>25.1</v>
+        <v>39</v>
       </c>
       <c r="N15">
-        <v>8.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="O15">
-        <v>18.2</v>
+        <v>24</v>
       </c>
       <c r="P15">
-        <v>0.457</v>
+        <v>0.526</v>
       </c>
       <c r="Q15">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>0.167</v>
+        <v>0.376</v>
       </c>
       <c r="T15">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="U15">
-        <v>17.2</v>
+        <v>21</v>
       </c>
       <c r="V15">
-        <v>0.474</v>
+        <v>0.548</v>
       </c>
       <c r="W15">
-        <v>0.462</v>
+        <v>0.55</v>
       </c>
       <c r="X15">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y15">
+        <v>8.5</v>
+      </c>
+      <c r="Z15">
+        <v>0.848</v>
+      </c>
+      <c r="AA15">
+        <v>1.7</v>
+      </c>
+      <c r="AB15">
+        <v>5.1</v>
+      </c>
+      <c r="AC15">
         <v>6.9</v>
       </c>
-      <c r="Z15">
-        <v>0.84</v>
-      </c>
-      <c r="AA15">
-        <v>1.3</v>
-      </c>
-      <c r="AB15">
-        <v>2.3</v>
-      </c>
-      <c r="AC15">
-        <v>3.6</v>
-      </c>
       <c r="AD15">
+        <v>6.3</v>
+      </c>
+      <c r="AE15">
+        <v>2.8</v>
+      </c>
+      <c r="AF15">
+        <v>0.7</v>
+      </c>
+      <c r="AG15">
+        <v>3</v>
+      </c>
+      <c r="AH15">
         <v>2.9</v>
       </c>
-      <c r="AE15">
-        <v>2.1</v>
-      </c>
-      <c r="AF15">
-        <v>1.2</v>
-      </c>
-      <c r="AG15">
-        <v>2.5</v>
-      </c>
-      <c r="AH15">
-        <v>2.6</v>
-      </c>
       <c r="AI15">
-        <v>22.7</v>
+        <v>33.6</v>
       </c>
       <c r="AJ15" t="s">
         <v>73</v>
@@ -2387,18 +2387,18 @@
         <v>75</v>
       </c>
       <c r="AM15">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>10057</v>
+        <v>16041</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>2193</v>
+        <v>3643</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -2407,19 +2407,19 @@
         <v>1963</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
         <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
         <v>82</v>
@@ -2428,73 +2428,73 @@
         <v>82</v>
       </c>
       <c r="M16">
-        <v>38.3</v>
+        <v>38.8</v>
       </c>
       <c r="N16">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="O16">
-        <v>19.8</v>
+        <v>23.1</v>
       </c>
       <c r="P16">
-        <v>0.515</v>
+        <v>0.465</v>
       </c>
       <c r="Q16">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R16">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="S16">
-        <v>0.173</v>
+        <v>0.238</v>
       </c>
       <c r="T16">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="U16">
-        <v>19.2</v>
+        <v>21.5</v>
       </c>
       <c r="V16">
-        <v>0.526</v>
+        <v>0.482</v>
       </c>
       <c r="W16">
-        <v>0.518</v>
+        <v>0.473</v>
       </c>
       <c r="X16">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y16">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.845</v>
+        <v>0.784</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AB16">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AC16">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD16">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="AE16">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="AF16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG16">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="AH16">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="AI16">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
       <c r="AJ16" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>75</v>
       </c>
       <c r="AM16">
-        <v>1985</v>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>

--- a/michael_jordan_per_game_averages.xlsx
+++ b/michael_jordan_per_game_averages.xlsx
@@ -133,112 +133,112 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
     <t>1993</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>1986</t>
   </si>
   <si>
     <t>1987</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
     <t>Michael Jordan</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>NBA</t>
   </si>
   <si>
+    <t>WAS</t>
+  </si>
+  <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>WAS</t>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>1995-06</t>
+  </si>
+  <si>
+    <t>1994-95</t>
+  </si>
+  <si>
+    <t>1997-98</t>
+  </si>
+  <si>
+    <t>1988-89</t>
+  </si>
+  <si>
+    <t>1989-90</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
+    <t>1984-85</t>
   </si>
   <si>
     <t>1992-93</t>
   </si>
   <si>
-    <t>1996-97</t>
-  </si>
-  <si>
-    <t>1990-91</t>
-  </si>
-  <si>
-    <t>1995-06</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
     <t>1985-86</t>
   </si>
   <si>
     <t>1986-87</t>
   </si>
   <si>
+    <t>1991-92</t>
+  </si>
+  <si>
     <t>2002-03</t>
-  </si>
-  <si>
-    <t>1991-92</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1994-95</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1984-85</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1997-98</t>
   </si>
   <si>
     <t>No</t>
@@ -726,13 +726,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>13459</v>
+        <v>18076</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -744,10 +744,10 @@
         <v>55</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
@@ -756,79 +756,79 @@
         <v>58</v>
       </c>
       <c r="K2">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="L2">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="M2">
-        <v>39.3</v>
+        <v>34.9</v>
       </c>
       <c r="N2">
-        <v>12.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O2">
-        <v>25.7</v>
+        <v>22.1</v>
       </c>
       <c r="P2">
-        <v>0.495</v>
+        <v>0.416</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="R2">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="S2">
-        <v>0.352</v>
+        <v>0.189</v>
       </c>
       <c r="T2">
-        <v>11.7</v>
+        <v>9</v>
       </c>
       <c r="U2">
-        <v>22.7</v>
+        <v>21.2</v>
       </c>
       <c r="V2">
-        <v>0.514</v>
+        <v>0.426</v>
       </c>
       <c r="W2">
-        <v>0.515</v>
+        <v>0.42</v>
       </c>
       <c r="X2">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="Y2">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="Z2">
-        <v>0.837</v>
+        <v>0.79</v>
       </c>
       <c r="AA2">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AC2">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="AD2">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AE2">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AF2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AG2">
         <v>2.7</v>
       </c>
       <c r="AH2">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AI2">
-        <v>32.6</v>
+        <v>22.9</v>
       </c>
       <c r="AJ2" t="s">
         <v>60</v>
@@ -840,18 +840,18 @@
         <v>75</v>
       </c>
       <c r="AM2">
-        <v>1993</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>15484</v>
+        <v>14913</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -860,19 +860,19 @@
         <v>1963</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>82</v>
@@ -881,73 +881,73 @@
         <v>82</v>
       </c>
       <c r="M3">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="N3">
         <v>11.2</v>
       </c>
       <c r="O3">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="P3">
-        <v>0.486</v>
+        <v>0.495</v>
       </c>
       <c r="Q3">
         <v>1.4</v>
       </c>
       <c r="R3">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="S3">
-        <v>0.374</v>
+        <v>0.427</v>
       </c>
       <c r="T3">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U3">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V3">
-        <v>0.507</v>
+        <v>0.506</v>
       </c>
       <c r="W3">
-        <v>0.516</v>
+        <v>0.525</v>
       </c>
       <c r="X3">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z3">
-        <v>0.833</v>
+        <v>0.834</v>
       </c>
       <c r="AA3">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB3">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AC3">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD3">
         <v>4.3</v>
       </c>
       <c r="AE3">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AF3">
         <v>0.5</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH3">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI3">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="AJ3" t="s">
         <v>61</v>
@@ -959,18 +959,18 @@
         <v>75</v>
       </c>
       <c r="AM3">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>12543</v>
+        <v>14392</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -979,94 +979,94 @@
         <v>1963</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="L4">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>37</v>
+        <v>39.3</v>
       </c>
       <c r="N4">
-        <v>12.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O4">
-        <v>22.4</v>
+        <v>23.8</v>
       </c>
       <c r="P4">
-        <v>0.539</v>
+        <v>0.411</v>
       </c>
       <c r="Q4">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="R4">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>0.312</v>
+        <v>0.5</v>
       </c>
       <c r="T4">
-        <v>11.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U4">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="V4">
-        <v>0.551</v>
+        <v>0.403</v>
       </c>
       <c r="W4">
-        <v>0.547</v>
+        <v>0.431</v>
       </c>
       <c r="X4">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="Y4">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z4">
-        <v>0.851</v>
+        <v>0.801</v>
       </c>
       <c r="AA4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB4">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AD4">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE4">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG4">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AH4">
         <v>2.8</v>
       </c>
       <c r="AI4">
-        <v>31.5</v>
+        <v>26.9</v>
       </c>
       <c r="AJ4" t="s">
         <v>62</v>
@@ -1078,18 +1078,18 @@
         <v>75</v>
       </c>
       <c r="AM4">
-        <v>1991</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>14913</v>
+        <v>16041</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -1098,19 +1098,19 @@
         <v>1963</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5">
         <v>82</v>
@@ -1119,73 +1119,73 @@
         <v>82</v>
       </c>
       <c r="M5">
-        <v>37.7</v>
+        <v>38.8</v>
       </c>
       <c r="N5">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="O5">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="P5">
-        <v>0.495</v>
+        <v>0.465</v>
       </c>
       <c r="Q5">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="R5">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="S5">
-        <v>0.427</v>
+        <v>0.238</v>
       </c>
       <c r="T5">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="U5">
-        <v>19.4</v>
+        <v>21.5</v>
       </c>
       <c r="V5">
-        <v>0.506</v>
+        <v>0.482</v>
       </c>
       <c r="W5">
-        <v>0.525</v>
+        <v>0.473</v>
       </c>
       <c r="X5">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y5">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.834</v>
+        <v>0.784</v>
       </c>
       <c r="AA5">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB5">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="AC5">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD5">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE5">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AF5">
         <v>0.5</v>
       </c>
       <c r="AG5">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AH5">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AI5">
-        <v>30.4</v>
+        <v>28.7</v>
       </c>
       <c r="AJ5" t="s">
         <v>63</v>
@@ -1197,18 +1197,18 @@
         <v>75</v>
       </c>
       <c r="AM5">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>18076</v>
+        <v>11647</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -1220,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
@@ -1232,79 +1232,79 @@
         <v>59</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="L6">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M6">
-        <v>34.9</v>
+        <v>40.2</v>
       </c>
       <c r="N6">
-        <v>9.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="O6">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="P6">
-        <v>0.416</v>
+        <v>0.538</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R6">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="S6">
-        <v>0.189</v>
+        <v>0.276</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>11.6</v>
       </c>
       <c r="U6">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V6">
-        <v>0.426</v>
+        <v>0.553</v>
       </c>
       <c r="W6">
-        <v>0.42</v>
+        <v>0.546</v>
       </c>
       <c r="X6">
-        <v>4.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Y6">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="AA6">
+        <v>1.8</v>
+      </c>
+      <c r="AB6">
+        <v>6.2</v>
+      </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
+      <c r="AD6">
+        <v>8</v>
+      </c>
+      <c r="AE6">
+        <v>2.9</v>
+      </c>
+      <c r="AF6">
         <v>0.8</v>
       </c>
-      <c r="AB6">
-        <v>4.8</v>
-      </c>
-      <c r="AC6">
-        <v>5.7</v>
-      </c>
-      <c r="AD6">
-        <v>5.2</v>
-      </c>
-      <c r="AE6">
-        <v>1.4</v>
-      </c>
-      <c r="AF6">
-        <v>0.4</v>
-      </c>
       <c r="AG6">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI6">
-        <v>22.9</v>
+        <v>32.5</v>
       </c>
       <c r="AJ6" t="s">
         <v>64</v>
@@ -1316,18 +1316,18 @@
         <v>75</v>
       </c>
       <c r="AM6">
-        <v>2002</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>10425</v>
+        <v>12079</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -1336,94 +1336,94 @@
         <v>1963</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="M7">
-        <v>25.1</v>
+        <v>39</v>
       </c>
       <c r="N7">
-        <v>8.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="O7">
-        <v>18.2</v>
+        <v>24</v>
       </c>
       <c r="P7">
-        <v>0.457</v>
+        <v>0.526</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>0.167</v>
+        <v>0.376</v>
       </c>
       <c r="T7">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="U7">
-        <v>17.2</v>
+        <v>21</v>
       </c>
       <c r="V7">
-        <v>0.474</v>
+        <v>0.548</v>
       </c>
       <c r="W7">
-        <v>0.462</v>
+        <v>0.55</v>
       </c>
       <c r="X7">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y7">
+        <v>8.5</v>
+      </c>
+      <c r="Z7">
+        <v>0.848</v>
+      </c>
+      <c r="AA7">
+        <v>1.7</v>
+      </c>
+      <c r="AB7">
+        <v>5.1</v>
+      </c>
+      <c r="AC7">
         <v>6.9</v>
       </c>
-      <c r="Z7">
-        <v>0.84</v>
-      </c>
-      <c r="AA7">
-        <v>1.3</v>
-      </c>
-      <c r="AB7">
-        <v>2.3</v>
-      </c>
-      <c r="AC7">
-        <v>3.6</v>
-      </c>
       <c r="AD7">
+        <v>6.3</v>
+      </c>
+      <c r="AE7">
+        <v>2.8</v>
+      </c>
+      <c r="AF7">
+        <v>0.7</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
         <v>2.9</v>
       </c>
-      <c r="AE7">
-        <v>2.1</v>
-      </c>
-      <c r="AF7">
-        <v>1.2</v>
-      </c>
-      <c r="AG7">
-        <v>2.5</v>
-      </c>
-      <c r="AH7">
-        <v>2.6</v>
-      </c>
       <c r="AI7">
-        <v>22.7</v>
+        <v>33.6</v>
       </c>
       <c r="AJ7" t="s">
         <v>65</v>
@@ -1435,18 +1435,18 @@
         <v>75</v>
       </c>
       <c r="AM7">
-        <v>1986</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>10813</v>
+        <v>12543</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1455,19 +1455,19 @@
         <v>1963</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8">
         <v>82</v>
@@ -1476,73 +1476,73 @@
         <v>82</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N8">
-        <v>13.4</v>
+        <v>12.1</v>
       </c>
       <c r="O8">
-        <v>27.8</v>
+        <v>22.4</v>
       </c>
       <c r="P8">
-        <v>0.482</v>
+        <v>0.539</v>
       </c>
       <c r="Q8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R8">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="S8">
-        <v>0.182</v>
+        <v>0.312</v>
       </c>
       <c r="T8">
-        <v>13.2</v>
+        <v>11.7</v>
       </c>
       <c r="U8">
-        <v>27</v>
+        <v>21.3</v>
       </c>
       <c r="V8">
-        <v>0.491</v>
+        <v>0.551</v>
       </c>
       <c r="W8">
-        <v>0.484</v>
+        <v>0.547</v>
       </c>
       <c r="X8">
-        <v>10.2</v>
+        <v>7</v>
       </c>
       <c r="Y8">
-        <v>11.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.857</v>
+        <v>0.851</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AB8">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="AC8">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AD8">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE8">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AF8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="AH8">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI8">
-        <v>37.1</v>
+        <v>31.5</v>
       </c>
       <c r="AJ8" t="s">
         <v>66</v>
@@ -1554,18 +1554,18 @@
         <v>75</v>
       </c>
       <c r="AM8">
-        <v>1987</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>18568</v>
+        <v>11208</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -1577,10 +1577,10 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
@@ -1592,76 +1592,76 @@
         <v>82</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>40.4</v>
       </c>
       <c r="N9">
-        <v>8.300000000000001</v>
+        <v>13</v>
       </c>
       <c r="O9">
-        <v>18.6</v>
+        <v>24.4</v>
       </c>
       <c r="P9">
-        <v>0.445</v>
+        <v>0.535</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="S9">
-        <v>0.291</v>
+        <v>0.132</v>
       </c>
       <c r="T9">
-        <v>8.1</v>
+        <v>13</v>
       </c>
       <c r="U9">
-        <v>18</v>
+        <v>23.7</v>
       </c>
       <c r="V9">
-        <v>0.45</v>
+        <v>0.546</v>
       </c>
       <c r="W9">
-        <v>0.45</v>
+        <v>0.537</v>
       </c>
       <c r="X9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y9">
+        <v>10.5</v>
+      </c>
+      <c r="Z9">
+        <v>0.841</v>
+      </c>
+      <c r="AA9">
+        <v>1.7</v>
+      </c>
+      <c r="AB9">
+        <v>3.8</v>
+      </c>
+      <c r="AC9">
+        <v>5.5</v>
+      </c>
+      <c r="AD9">
+        <v>5.9</v>
+      </c>
+      <c r="AE9">
         <v>3.2</v>
       </c>
-      <c r="Y9">
-        <v>4</v>
-      </c>
-      <c r="Z9">
-        <v>0.821</v>
-      </c>
-      <c r="AA9">
-        <v>0.9</v>
-      </c>
-      <c r="AB9">
-        <v>5.2</v>
-      </c>
-      <c r="AC9">
-        <v>6.1</v>
-      </c>
-      <c r="AD9">
-        <v>3.8</v>
-      </c>
-      <c r="AE9">
-        <v>1.5</v>
-      </c>
       <c r="AF9">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AG9">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="AH9">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="AI9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="s">
         <v>67</v>
@@ -1673,18 +1673,18 @@
         <v>75</v>
       </c>
       <c r="AM9">
-        <v>2003</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>12990</v>
+        <v>15484</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -1693,94 +1693,94 @@
         <v>1963</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M10">
-        <v>38.8</v>
+        <v>37.9</v>
       </c>
       <c r="N10">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="O10">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="P10">
-        <v>0.519</v>
+        <v>0.486</v>
       </c>
       <c r="Q10">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="R10">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="S10">
-        <v>0.27</v>
+        <v>0.374</v>
       </c>
       <c r="T10">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
       <c r="U10">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="V10">
-        <v>0.533</v>
+        <v>0.507</v>
       </c>
       <c r="W10">
-        <v>0.526</v>
+        <v>0.516</v>
       </c>
       <c r="X10">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y10">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z10">
-        <v>0.832</v>
+        <v>0.833</v>
       </c>
       <c r="AA10">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AB10">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AC10">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AD10">
-        <v>6.1</v>
+        <v>4.3</v>
       </c>
       <c r="AE10">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AF10">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AG10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AI10">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="AJ10" t="s">
         <v>68</v>
@@ -1792,18 +1792,18 @@
         <v>75</v>
       </c>
       <c r="AM10">
-        <v>1992</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>11208</v>
+        <v>10057</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -1812,19 +1812,19 @@
         <v>1963</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>82</v>
@@ -1833,16 +1833,16 @@
         <v>82</v>
       </c>
       <c r="M11">
-        <v>40.4</v>
+        <v>38.3</v>
       </c>
       <c r="N11">
-        <v>13</v>
+        <v>10.2</v>
       </c>
       <c r="O11">
-        <v>24.4</v>
+        <v>19.8</v>
       </c>
       <c r="P11">
-        <v>0.535</v>
+        <v>0.515</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -1851,55 +1851,55 @@
         <v>0.6</v>
       </c>
       <c r="S11">
-        <v>0.132</v>
+        <v>0.173</v>
       </c>
       <c r="T11">
-        <v>13</v>
+        <v>10.1</v>
       </c>
       <c r="U11">
-        <v>23.7</v>
+        <v>19.2</v>
       </c>
       <c r="V11">
-        <v>0.546</v>
+        <v>0.526</v>
       </c>
       <c r="W11">
-        <v>0.537</v>
+        <v>0.518</v>
       </c>
       <c r="X11">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="Y11">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="Z11">
-        <v>0.841</v>
+        <v>0.845</v>
       </c>
       <c r="AA11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC11">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD11">
         <v>5.9</v>
       </c>
       <c r="AE11">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AF11">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AG11">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AH11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AI11">
-        <v>35</v>
+        <v>28.2</v>
       </c>
       <c r="AJ11" t="s">
         <v>69</v>
@@ -1911,18 +1911,18 @@
         <v>75</v>
       </c>
       <c r="AM11">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>14392</v>
+        <v>13459</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -1931,94 +1931,94 @@
         <v>1963</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M12">
         <v>39.3</v>
       </c>
       <c r="N12">
-        <v>9.800000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="O12">
-        <v>23.8</v>
+        <v>25.7</v>
       </c>
       <c r="P12">
-        <v>0.411</v>
+        <v>0.495</v>
       </c>
       <c r="Q12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="S12">
-        <v>0.5</v>
+        <v>0.352</v>
       </c>
       <c r="T12">
-        <v>8.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="U12">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="V12">
-        <v>0.403</v>
+        <v>0.514</v>
       </c>
       <c r="W12">
-        <v>0.431</v>
+        <v>0.515</v>
       </c>
       <c r="X12">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="Z12">
-        <v>0.801</v>
+        <v>0.837</v>
       </c>
       <c r="AA12">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AB12">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AC12">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD12">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AE12">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AF12">
         <v>0.8</v>
       </c>
       <c r="AG12">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH12">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AI12">
-        <v>26.9</v>
+        <v>32.6</v>
       </c>
       <c r="AJ12" t="s">
         <v>70</v>
@@ -2030,18 +2030,18 @@
         <v>75</v>
       </c>
       <c r="AM12">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>11647</v>
+        <v>10425</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -2050,94 +2050,94 @@
         <v>1963</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="L13">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>40.2</v>
+        <v>25.1</v>
       </c>
       <c r="N13">
-        <v>11.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O13">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
       <c r="P13">
-        <v>0.538</v>
+        <v>0.457</v>
       </c>
       <c r="Q13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0.167</v>
+      </c>
+      <c r="T13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U13">
+        <v>17.2</v>
+      </c>
+      <c r="V13">
+        <v>0.474</v>
+      </c>
+      <c r="W13">
+        <v>0.462</v>
+      </c>
+      <c r="X13">
+        <v>5.8</v>
+      </c>
+      <c r="Y13">
+        <v>6.9</v>
+      </c>
+      <c r="Z13">
+        <v>0.84</v>
+      </c>
+      <c r="AA13">
+        <v>1.3</v>
+      </c>
+      <c r="AB13">
+        <v>2.3</v>
+      </c>
+      <c r="AC13">
+        <v>3.6</v>
+      </c>
+      <c r="AD13">
+        <v>2.9</v>
+      </c>
+      <c r="AE13">
+        <v>2.1</v>
+      </c>
+      <c r="AF13">
         <v>1.2</v>
       </c>
-      <c r="S13">
-        <v>0.276</v>
-      </c>
-      <c r="T13">
-        <v>11.6</v>
-      </c>
-      <c r="U13">
-        <v>21</v>
-      </c>
-      <c r="V13">
-        <v>0.553</v>
-      </c>
-      <c r="W13">
-        <v>0.546</v>
-      </c>
-      <c r="X13">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Y13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z13">
-        <v>0.85</v>
-      </c>
-      <c r="AA13">
-        <v>1.8</v>
-      </c>
-      <c r="AB13">
-        <v>6.2</v>
-      </c>
-      <c r="AC13">
-        <v>8</v>
-      </c>
-      <c r="AD13">
-        <v>8</v>
-      </c>
-      <c r="AE13">
-        <v>2.9</v>
-      </c>
-      <c r="AF13">
-        <v>0.8</v>
-      </c>
       <c r="AG13">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AH13">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AI13">
-        <v>32.5</v>
+        <v>22.7</v>
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
@@ -2149,18 +2149,18 @@
         <v>75</v>
       </c>
       <c r="AM13">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>10057</v>
+        <v>10813</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -2169,19 +2169,19 @@
         <v>1963</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14">
         <v>82</v>
@@ -2190,73 +2190,73 @@
         <v>82</v>
       </c>
       <c r="M14">
-        <v>38.3</v>
+        <v>40</v>
       </c>
       <c r="N14">
-        <v>10.2</v>
+        <v>13.4</v>
       </c>
       <c r="O14">
-        <v>19.8</v>
+        <v>27.8</v>
       </c>
       <c r="P14">
-        <v>0.515</v>
+        <v>0.482</v>
       </c>
       <c r="Q14">
         <v>0.1</v>
       </c>
       <c r="R14">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="S14">
-        <v>0.173</v>
+        <v>0.182</v>
       </c>
       <c r="T14">
-        <v>10.1</v>
+        <v>13.2</v>
       </c>
       <c r="U14">
-        <v>19.2</v>
+        <v>27</v>
       </c>
       <c r="V14">
-        <v>0.526</v>
+        <v>0.491</v>
       </c>
       <c r="W14">
-        <v>0.518</v>
+        <v>0.484</v>
       </c>
       <c r="X14">
-        <v>7.7</v>
+        <v>10.2</v>
       </c>
       <c r="Y14">
-        <v>9.1</v>
+        <v>11.9</v>
       </c>
       <c r="Z14">
-        <v>0.845</v>
+        <v>0.857</v>
       </c>
       <c r="AA14">
         <v>2</v>
       </c>
       <c r="AB14">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC14">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="AD14">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="AE14">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AF14">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AG14">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH14">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AI14">
-        <v>28.2</v>
+        <v>37.1</v>
       </c>
       <c r="AJ14" t="s">
         <v>72</v>
@@ -2268,18 +2268,18 @@
         <v>75</v>
       </c>
       <c r="AM14">
-        <v>1985</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>12079</v>
+        <v>12990</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -2288,94 +2288,94 @@
         <v>1963</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="N15">
-        <v>12.6</v>
+        <v>11.8</v>
       </c>
       <c r="O15">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="P15">
-        <v>0.526</v>
+        <v>0.519</v>
       </c>
       <c r="Q15">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="S15">
-        <v>0.376</v>
+        <v>0.27</v>
       </c>
       <c r="T15">
         <v>11.5</v>
       </c>
       <c r="U15">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="V15">
-        <v>0.548</v>
+        <v>0.533</v>
       </c>
       <c r="W15">
-        <v>0.55</v>
+        <v>0.526</v>
       </c>
       <c r="X15">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y15">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z15">
-        <v>0.848</v>
+        <v>0.832</v>
       </c>
       <c r="AA15">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AB15">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC15">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AD15">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE15">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="AF15">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AG15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH15">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AI15">
-        <v>33.6</v>
+        <v>30.1</v>
       </c>
       <c r="AJ15" t="s">
         <v>73</v>
@@ -2387,18 +2387,18 @@
         <v>75</v>
       </c>
       <c r="AM15">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>16041</v>
+        <v>18568</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -2410,10 +2410,10 @@
         <v>55</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
         <v>57</v>
@@ -2425,76 +2425,76 @@
         <v>82</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M16">
-        <v>38.8</v>
+        <v>37</v>
       </c>
       <c r="N16">
-        <v>10.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O16">
-        <v>23.1</v>
+        <v>18.6</v>
       </c>
       <c r="P16">
-        <v>0.465</v>
+        <v>0.445</v>
       </c>
       <c r="Q16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R16">
+        <v>0.7</v>
+      </c>
+      <c r="S16">
+        <v>0.291</v>
+      </c>
+      <c r="T16">
+        <v>8.1</v>
+      </c>
+      <c r="U16">
+        <v>18</v>
+      </c>
+      <c r="V16">
+        <v>0.45</v>
+      </c>
+      <c r="W16">
+        <v>0.45</v>
+      </c>
+      <c r="X16">
+        <v>3.2</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>0.821</v>
+      </c>
+      <c r="AA16">
+        <v>0.9</v>
+      </c>
+      <c r="AB16">
+        <v>5.2</v>
+      </c>
+      <c r="AC16">
+        <v>6.1</v>
+      </c>
+      <c r="AD16">
+        <v>3.8</v>
+      </c>
+      <c r="AE16">
         <v>1.5</v>
-      </c>
-      <c r="S16">
-        <v>0.238</v>
-      </c>
-      <c r="T16">
-        <v>10.4</v>
-      </c>
-      <c r="U16">
-        <v>21.5</v>
-      </c>
-      <c r="V16">
-        <v>0.482</v>
-      </c>
-      <c r="W16">
-        <v>0.473</v>
-      </c>
-      <c r="X16">
-        <v>6.9</v>
-      </c>
-      <c r="Y16">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z16">
-        <v>0.784</v>
-      </c>
-      <c r="AA16">
-        <v>1.6</v>
-      </c>
-      <c r="AB16">
-        <v>4.2</v>
-      </c>
-      <c r="AC16">
-        <v>5.8</v>
-      </c>
-      <c r="AD16">
-        <v>3.5</v>
-      </c>
-      <c r="AE16">
-        <v>1.7</v>
       </c>
       <c r="AF16">
         <v>0.5</v>
       </c>
       <c r="AG16">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH16">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AI16">
-        <v>28.7</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>75</v>
       </c>
       <c r="AM16">
-        <v>1998</v>
+        <v>2003</v>
       </c>
     </row>
   </sheetData>

--- a/michael_jordan_per_game_averages.xlsx
+++ b/michael_jordan_per_game_averages.xlsx
@@ -133,109 +133,109 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
     <t>2002</t>
   </si>
   <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
     <t>1996</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
     <t>1995</t>
   </si>
   <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
     <t>1993</t>
   </si>
   <si>
-    <t>1986</t>
-  </si>
-  <si>
     <t>1987</t>
   </si>
   <si>
-    <t>1992</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
     <t>Michael Jordan</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>NBA</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>WAS</t>
   </si>
   <si>
-    <t>CHI</t>
+    <t>1985-86</t>
+  </si>
+  <si>
+    <t>1988-89</t>
   </si>
   <si>
     <t>2001-02</t>
   </si>
   <si>
+    <t>1989-90</t>
+  </si>
+  <si>
+    <t>1984-85</t>
+  </si>
+  <si>
     <t>1995-06</t>
   </si>
   <si>
+    <t>1991-92</t>
+  </si>
+  <si>
+    <t>1997-98</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
     <t>1994-95</t>
   </si>
   <si>
-    <t>1997-98</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1990-91</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1996-97</t>
-  </si>
-  <si>
-    <t>1984-85</t>
-  </si>
-  <si>
     <t>1992-93</t>
   </si>
   <si>
-    <t>1985-86</t>
-  </si>
-  <si>
     <t>1986-87</t>
-  </si>
-  <si>
-    <t>1991-92</t>
   </si>
   <si>
     <t>2002-03</t>
@@ -726,13 +726,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>18076</v>
+        <v>10425</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -744,10 +744,10 @@
         <v>55</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>57</v>
@@ -756,79 +756,79 @@
         <v>58</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="L2">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>34.9</v>
+        <v>25.1</v>
       </c>
       <c r="N2">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O2">
-        <v>22.1</v>
+        <v>18.2</v>
       </c>
       <c r="P2">
-        <v>0.416</v>
+        <v>0.457</v>
       </c>
       <c r="Q2">
         <v>0.2</v>
       </c>
       <c r="R2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.189</v>
+        <v>0.167</v>
       </c>
       <c r="T2">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U2">
-        <v>21.2</v>
+        <v>17.2</v>
       </c>
       <c r="V2">
-        <v>0.426</v>
+        <v>0.474</v>
       </c>
       <c r="W2">
-        <v>0.42</v>
+        <v>0.462</v>
       </c>
       <c r="X2">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="Y2">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="Z2">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB2">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="AC2">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD2">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="AE2">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AF2">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="AG2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AH2">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI2">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AJ2" t="s">
         <v>60</v>
@@ -840,18 +840,18 @@
         <v>75</v>
       </c>
       <c r="AM2">
-        <v>2002</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>14913</v>
+        <v>11647</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
@@ -860,94 +860,94 @@
         <v>1963</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M3">
-        <v>37.7</v>
+        <v>40.2</v>
       </c>
       <c r="N3">
-        <v>11.2</v>
+        <v>11.9</v>
       </c>
       <c r="O3">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="P3">
-        <v>0.495</v>
+        <v>0.538</v>
       </c>
       <c r="Q3">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="R3">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="S3">
-        <v>0.427</v>
+        <v>0.276</v>
       </c>
       <c r="T3">
+        <v>11.6</v>
+      </c>
+      <c r="U3">
+        <v>21</v>
+      </c>
+      <c r="V3">
+        <v>0.553</v>
+      </c>
+      <c r="W3">
+        <v>0.546</v>
+      </c>
+      <c r="X3">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y3">
         <v>9.800000000000001</v>
       </c>
-      <c r="U3">
-        <v>19.4</v>
-      </c>
-      <c r="V3">
-        <v>0.506</v>
-      </c>
-      <c r="W3">
-        <v>0.525</v>
-      </c>
-      <c r="X3">
-        <v>6.7</v>
-      </c>
-      <c r="Y3">
-        <v>8</v>
-      </c>
       <c r="Z3">
-        <v>0.834</v>
+        <v>0.85</v>
       </c>
       <c r="AA3">
         <v>1.8</v>
       </c>
       <c r="AB3">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC3">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AD3">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="AE3">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="AF3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AG3">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="AH3">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AI3">
-        <v>30.4</v>
+        <v>32.5</v>
       </c>
       <c r="AJ3" t="s">
         <v>61</v>
@@ -959,18 +959,18 @@
         <v>75</v>
       </c>
       <c r="AM3">
-        <v>1996</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>14392</v>
+        <v>18076</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -982,10 +982,10 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
@@ -994,79 +994,79 @@
         <v>59</v>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>39.3</v>
+        <v>34.9</v>
       </c>
       <c r="N4">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O4">
-        <v>23.8</v>
+        <v>22.1</v>
       </c>
       <c r="P4">
-        <v>0.411</v>
+        <v>0.416</v>
       </c>
       <c r="Q4">
+        <v>0.2</v>
+      </c>
+      <c r="R4">
         <v>0.9</v>
       </c>
-      <c r="R4">
-        <v>1.9</v>
-      </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>0.189</v>
       </c>
       <c r="T4">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="U4">
-        <v>21.9</v>
+        <v>21.2</v>
       </c>
       <c r="V4">
-        <v>0.403</v>
+        <v>0.426</v>
       </c>
       <c r="W4">
-        <v>0.431</v>
+        <v>0.42</v>
       </c>
       <c r="X4">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="Z4">
-        <v>0.801</v>
+        <v>0.79</v>
       </c>
       <c r="AA4">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AC4">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD4">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AE4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AF4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AG4">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH4">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AI4">
-        <v>26.9</v>
+        <v>22.9</v>
       </c>
       <c r="AJ4" t="s">
         <v>62</v>
@@ -1078,18 +1078,18 @@
         <v>75</v>
       </c>
       <c r="AM4">
-        <v>1995</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>16041</v>
+        <v>12079</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -1098,19 +1098,19 @@
         <v>1963</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>82</v>
@@ -1119,73 +1119,73 @@
         <v>82</v>
       </c>
       <c r="M5">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="N5">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
       <c r="O5">
-        <v>23.1</v>
+        <v>24</v>
       </c>
       <c r="P5">
-        <v>0.465</v>
+        <v>0.526</v>
       </c>
       <c r="Q5">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="R5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>0.238</v>
+        <v>0.376</v>
       </c>
       <c r="T5">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
       <c r="U5">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="V5">
-        <v>0.482</v>
+        <v>0.548</v>
       </c>
       <c r="W5">
-        <v>0.473</v>
+        <v>0.55</v>
       </c>
       <c r="X5">
+        <v>7.2</v>
+      </c>
+      <c r="Y5">
+        <v>8.5</v>
+      </c>
+      <c r="Z5">
+        <v>0.848</v>
+      </c>
+      <c r="AA5">
+        <v>1.7</v>
+      </c>
+      <c r="AB5">
+        <v>5.1</v>
+      </c>
+      <c r="AC5">
         <v>6.9</v>
       </c>
-      <c r="Y5">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.784</v>
-      </c>
-      <c r="AA5">
-        <v>1.6</v>
-      </c>
-      <c r="AB5">
-        <v>4.2</v>
-      </c>
-      <c r="AC5">
-        <v>5.8</v>
-      </c>
       <c r="AD5">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE5">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="AF5">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AG5">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AH5">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AI5">
-        <v>28.7</v>
+        <v>33.6</v>
       </c>
       <c r="AJ5" t="s">
         <v>63</v>
@@ -1197,18 +1197,18 @@
         <v>75</v>
       </c>
       <c r="AM5">
-        <v>1998</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>11647</v>
+        <v>10057</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D6" t="s">
         <v>54</v>
@@ -1217,94 +1217,94 @@
         <v>1963</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6">
-        <v>40.2</v>
+        <v>38.3</v>
       </c>
       <c r="N6">
-        <v>11.9</v>
+        <v>10.2</v>
       </c>
       <c r="O6">
-        <v>22.2</v>
+        <v>19.8</v>
       </c>
       <c r="P6">
-        <v>0.538</v>
+        <v>0.515</v>
       </c>
       <c r="Q6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="S6">
-        <v>0.276</v>
+        <v>0.173</v>
       </c>
       <c r="T6">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
       <c r="U6">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="V6">
-        <v>0.553</v>
+        <v>0.526</v>
       </c>
       <c r="W6">
-        <v>0.546</v>
+        <v>0.518</v>
       </c>
       <c r="X6">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="Y6">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="Z6">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="AA6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="AC6">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD6">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AE6">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AF6">
         <v>0.8</v>
       </c>
       <c r="AG6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AI6">
-        <v>32.5</v>
+        <v>28.2</v>
       </c>
       <c r="AJ6" t="s">
         <v>64</v>
@@ -1316,18 +1316,18 @@
         <v>75</v>
       </c>
       <c r="AM6">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>12079</v>
+        <v>14913</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D7" t="s">
         <v>54</v>
@@ -1336,19 +1336,19 @@
         <v>1963</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>82</v>
@@ -1357,73 +1357,73 @@
         <v>82</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>37.7</v>
       </c>
       <c r="N7">
-        <v>12.6</v>
+        <v>11.2</v>
       </c>
       <c r="O7">
-        <v>24</v>
+        <v>22.6</v>
       </c>
       <c r="P7">
-        <v>0.526</v>
+        <v>0.495</v>
       </c>
       <c r="Q7">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S7">
-        <v>0.376</v>
+        <v>0.427</v>
       </c>
       <c r="T7">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U7">
-        <v>21</v>
+        <v>19.4</v>
       </c>
       <c r="V7">
-        <v>0.548</v>
+        <v>0.506</v>
       </c>
       <c r="W7">
-        <v>0.55</v>
+        <v>0.525</v>
       </c>
       <c r="X7">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="Y7">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z7">
-        <v>0.848</v>
+        <v>0.834</v>
       </c>
       <c r="AA7">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB7">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AC7">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD7">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="AE7">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AF7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AH7">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI7">
-        <v>33.6</v>
+        <v>30.4</v>
       </c>
       <c r="AJ7" t="s">
         <v>65</v>
@@ -1435,18 +1435,18 @@
         <v>75</v>
       </c>
       <c r="AM7">
-        <v>1990</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>12543</v>
+        <v>12990</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D8" t="s">
         <v>54</v>
@@ -1455,94 +1455,94 @@
         <v>1963</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>38.8</v>
       </c>
       <c r="N8">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="O8">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="P8">
-        <v>0.539</v>
+        <v>0.519</v>
       </c>
       <c r="Q8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R8">
+        <v>1.3</v>
+      </c>
+      <c r="S8">
+        <v>0.27</v>
+      </c>
+      <c r="T8">
+        <v>11.5</v>
+      </c>
+      <c r="U8">
+        <v>21.5</v>
+      </c>
+      <c r="V8">
+        <v>0.533</v>
+      </c>
+      <c r="W8">
+        <v>0.526</v>
+      </c>
+      <c r="X8">
+        <v>6.1</v>
+      </c>
+      <c r="Y8">
+        <v>7.4</v>
+      </c>
+      <c r="Z8">
+        <v>0.832</v>
+      </c>
+      <c r="AA8">
         <v>1.1</v>
       </c>
-      <c r="S8">
-        <v>0.312</v>
-      </c>
-      <c r="T8">
-        <v>11.7</v>
-      </c>
-      <c r="U8">
-        <v>21.3</v>
-      </c>
-      <c r="V8">
-        <v>0.551</v>
-      </c>
-      <c r="W8">
-        <v>0.547</v>
-      </c>
-      <c r="X8">
-        <v>7</v>
-      </c>
-      <c r="Y8">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z8">
-        <v>0.851</v>
-      </c>
-      <c r="AA8">
-        <v>1.4</v>
-      </c>
       <c r="AB8">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC8">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AD8">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AE8">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AG8">
         <v>2.5</v>
       </c>
       <c r="AH8">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AI8">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="AJ8" t="s">
         <v>66</v>
@@ -1554,18 +1554,18 @@
         <v>75</v>
       </c>
       <c r="AM8">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>11208</v>
+        <v>16041</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -1574,19 +1574,19 @@
         <v>1963</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9">
         <v>82</v>
@@ -1595,73 +1595,73 @@
         <v>82</v>
       </c>
       <c r="M9">
-        <v>40.4</v>
+        <v>38.8</v>
       </c>
       <c r="N9">
-        <v>13</v>
+        <v>10.7</v>
       </c>
       <c r="O9">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="P9">
-        <v>0.535</v>
+        <v>0.465</v>
       </c>
       <c r="Q9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R9">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="S9">
-        <v>0.132</v>
+        <v>0.238</v>
       </c>
       <c r="T9">
-        <v>13</v>
+        <v>10.4</v>
       </c>
       <c r="U9">
-        <v>23.7</v>
+        <v>21.5</v>
       </c>
       <c r="V9">
-        <v>0.546</v>
+        <v>0.482</v>
       </c>
       <c r="W9">
-        <v>0.537</v>
+        <v>0.473</v>
       </c>
       <c r="X9">
+        <v>6.9</v>
+      </c>
+      <c r="Y9">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y9">
-        <v>10.5</v>
-      </c>
       <c r="Z9">
-        <v>0.841</v>
+        <v>0.784</v>
       </c>
       <c r="AA9">
+        <v>1.6</v>
+      </c>
+      <c r="AB9">
+        <v>4.2</v>
+      </c>
+      <c r="AC9">
+        <v>5.8</v>
+      </c>
+      <c r="AD9">
+        <v>3.5</v>
+      </c>
+      <c r="AE9">
         <v>1.7</v>
       </c>
-      <c r="AB9">
-        <v>3.8</v>
-      </c>
-      <c r="AC9">
-        <v>5.5</v>
-      </c>
-      <c r="AD9">
-        <v>5.9</v>
-      </c>
-      <c r="AE9">
-        <v>3.2</v>
-      </c>
       <c r="AF9">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AG9">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH9">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="AI9">
-        <v>35</v>
+        <v>28.7</v>
       </c>
       <c r="AJ9" t="s">
         <v>67</v>
@@ -1673,18 +1673,18 @@
         <v>75</v>
       </c>
       <c r="AM9">
-        <v>1988</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>15484</v>
+        <v>12543</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -1693,19 +1693,19 @@
         <v>1963</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>82</v>
@@ -1714,73 +1714,73 @@
         <v>82</v>
       </c>
       <c r="M10">
-        <v>37.9</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>11.2</v>
+        <v>12.1</v>
       </c>
       <c r="O10">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="P10">
-        <v>0.486</v>
+        <v>0.539</v>
       </c>
       <c r="Q10">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="R10">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="S10">
-        <v>0.374</v>
+        <v>0.312</v>
       </c>
       <c r="T10">
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="U10">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="V10">
-        <v>0.507</v>
+        <v>0.551</v>
       </c>
       <c r="W10">
-        <v>0.516</v>
+        <v>0.547</v>
       </c>
       <c r="X10">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10">
-        <v>0.833</v>
+        <v>0.851</v>
       </c>
       <c r="AA10">
         <v>1.4</v>
       </c>
       <c r="AB10">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AC10">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD10">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="AE10">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="AF10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AH10">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="AI10">
-        <v>29.6</v>
+        <v>31.5</v>
       </c>
       <c r="AJ10" t="s">
         <v>68</v>
@@ -1792,18 +1792,18 @@
         <v>75</v>
       </c>
       <c r="AM10">
-        <v>1997</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>10057</v>
+        <v>11208</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D11" t="s">
         <v>54</v>
@@ -1812,19 +1812,19 @@
         <v>1963</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11">
         <v>82</v>
@@ -1833,16 +1833,16 @@
         <v>82</v>
       </c>
       <c r="M11">
-        <v>38.3</v>
+        <v>40.4</v>
       </c>
       <c r="N11">
-        <v>10.2</v>
+        <v>13</v>
       </c>
       <c r="O11">
-        <v>19.8</v>
+        <v>24.4</v>
       </c>
       <c r="P11">
-        <v>0.515</v>
+        <v>0.535</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -1851,55 +1851,55 @@
         <v>0.6</v>
       </c>
       <c r="S11">
-        <v>0.173</v>
+        <v>0.132</v>
       </c>
       <c r="T11">
-        <v>10.1</v>
+        <v>13</v>
       </c>
       <c r="U11">
-        <v>19.2</v>
+        <v>23.7</v>
       </c>
       <c r="V11">
-        <v>0.526</v>
+        <v>0.546</v>
       </c>
       <c r="W11">
-        <v>0.518</v>
+        <v>0.537</v>
       </c>
       <c r="X11">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y11">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="Z11">
-        <v>0.845</v>
+        <v>0.841</v>
       </c>
       <c r="AA11">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AB11">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AC11">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD11">
         <v>5.9</v>
       </c>
       <c r="AE11">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AF11">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AG11">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AH11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AI11">
-        <v>28.2</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="s">
         <v>69</v>
@@ -1911,18 +1911,18 @@
         <v>75</v>
       </c>
       <c r="AM11">
-        <v>1985</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>13459</v>
+        <v>15484</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -1931,94 +1931,94 @@
         <v>1963</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
         <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L12">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M12">
-        <v>39.3</v>
+        <v>37.9</v>
       </c>
       <c r="N12">
-        <v>12.7</v>
+        <v>11.2</v>
       </c>
       <c r="O12">
-        <v>25.7</v>
+        <v>23.1</v>
       </c>
       <c r="P12">
-        <v>0.495</v>
+        <v>0.486</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="R12">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="S12">
-        <v>0.352</v>
+        <v>0.374</v>
       </c>
       <c r="T12">
-        <v>11.7</v>
+        <v>9.9</v>
       </c>
       <c r="U12">
-        <v>22.7</v>
+        <v>19.5</v>
       </c>
       <c r="V12">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="W12">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="X12">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y12">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="Z12">
-        <v>0.837</v>
+        <v>0.833</v>
       </c>
       <c r="AA12">
+        <v>1.4</v>
+      </c>
+      <c r="AB12">
+        <v>4.5</v>
+      </c>
+      <c r="AC12">
+        <v>5.9</v>
+      </c>
+      <c r="AD12">
+        <v>4.3</v>
+      </c>
+      <c r="AE12">
         <v>1.7</v>
       </c>
-      <c r="AB12">
-        <v>5</v>
-      </c>
-      <c r="AC12">
-        <v>6.7</v>
-      </c>
-      <c r="AD12">
-        <v>5.5</v>
-      </c>
-      <c r="AE12">
-        <v>2.8</v>
-      </c>
       <c r="AF12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG12">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AH12">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AI12">
-        <v>32.6</v>
+        <v>29.6</v>
       </c>
       <c r="AJ12" t="s">
         <v>70</v>
@@ -2030,18 +2030,18 @@
         <v>75</v>
       </c>
       <c r="AM12">
-        <v>1993</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>10425</v>
+        <v>14392</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
@@ -2050,94 +2050,94 @@
         <v>1963</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>25.1</v>
+        <v>39.3</v>
       </c>
       <c r="N13">
-        <v>8.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O13">
-        <v>18.2</v>
+        <v>23.8</v>
       </c>
       <c r="P13">
-        <v>0.457</v>
+        <v>0.411</v>
       </c>
       <c r="Q13">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>0.167</v>
+        <v>0.5</v>
       </c>
       <c r="T13">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U13">
-        <v>17.2</v>
+        <v>21.9</v>
       </c>
       <c r="V13">
-        <v>0.474</v>
+        <v>0.403</v>
       </c>
       <c r="W13">
-        <v>0.462</v>
+        <v>0.431</v>
       </c>
       <c r="X13">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>0.801</v>
+      </c>
+      <c r="AA13">
+        <v>1.5</v>
+      </c>
+      <c r="AB13">
+        <v>5.4</v>
+      </c>
+      <c r="AC13">
         <v>6.9</v>
       </c>
-      <c r="Z13">
-        <v>0.84</v>
-      </c>
-      <c r="AA13">
-        <v>1.3</v>
-      </c>
-      <c r="AB13">
-        <v>2.3</v>
-      </c>
-      <c r="AC13">
-        <v>3.6</v>
-      </c>
       <c r="AD13">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="AE13">
+        <v>1.8</v>
+      </c>
+      <c r="AF13">
+        <v>0.8</v>
+      </c>
+      <c r="AG13">
         <v>2.1</v>
       </c>
-      <c r="AF13">
-        <v>1.2</v>
-      </c>
-      <c r="AG13">
-        <v>2.5</v>
-      </c>
       <c r="AH13">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AI13">
-        <v>22.7</v>
+        <v>26.9</v>
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
@@ -2149,18 +2149,18 @@
         <v>75</v>
       </c>
       <c r="AM13">
-        <v>1986</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>10813</v>
+        <v>13459</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -2169,94 +2169,94 @@
         <v>1963</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>39.3</v>
       </c>
       <c r="N14">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="O14">
-        <v>27.8</v>
+        <v>25.7</v>
       </c>
       <c r="P14">
-        <v>0.482</v>
+        <v>0.495</v>
       </c>
       <c r="Q14">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R14">
+        <v>2.9</v>
+      </c>
+      <c r="S14">
+        <v>0.352</v>
+      </c>
+      <c r="T14">
+        <v>11.7</v>
+      </c>
+      <c r="U14">
+        <v>22.7</v>
+      </c>
+      <c r="V14">
+        <v>0.514</v>
+      </c>
+      <c r="W14">
+        <v>0.515</v>
+      </c>
+      <c r="X14">
+        <v>6.1</v>
+      </c>
+      <c r="Y14">
+        <v>7.3</v>
+      </c>
+      <c r="Z14">
+        <v>0.837</v>
+      </c>
+      <c r="AA14">
+        <v>1.7</v>
+      </c>
+      <c r="AB14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>6.7</v>
+      </c>
+      <c r="AD14">
+        <v>5.5</v>
+      </c>
+      <c r="AE14">
+        <v>2.8</v>
+      </c>
+      <c r="AF14">
         <v>0.8</v>
       </c>
-      <c r="S14">
-        <v>0.182</v>
-      </c>
-      <c r="T14">
-        <v>13.2</v>
-      </c>
-      <c r="U14">
-        <v>27</v>
-      </c>
-      <c r="V14">
-        <v>0.491</v>
-      </c>
-      <c r="W14">
-        <v>0.484</v>
-      </c>
-      <c r="X14">
-        <v>10.2</v>
-      </c>
-      <c r="Y14">
-        <v>11.9</v>
-      </c>
-      <c r="Z14">
-        <v>0.857</v>
-      </c>
-      <c r="AA14">
-        <v>2</v>
-      </c>
-      <c r="AB14">
-        <v>3.2</v>
-      </c>
-      <c r="AC14">
-        <v>5.2</v>
-      </c>
-      <c r="AD14">
-        <v>4.6</v>
-      </c>
-      <c r="AE14">
-        <v>2.9</v>
-      </c>
-      <c r="AF14">
-        <v>1.5</v>
-      </c>
       <c r="AG14">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AH14">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AI14">
-        <v>37.1</v>
+        <v>32.6</v>
       </c>
       <c r="AJ14" t="s">
         <v>72</v>
@@ -2268,18 +2268,18 @@
         <v>75</v>
       </c>
       <c r="AM14">
-        <v>1987</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>12990</v>
+        <v>10813</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -2288,94 +2288,94 @@
         <v>1963</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L15">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>38.8</v>
+        <v>40</v>
       </c>
       <c r="N15">
-        <v>11.8</v>
+        <v>13.4</v>
       </c>
       <c r="O15">
-        <v>22.7</v>
+        <v>27.8</v>
       </c>
       <c r="P15">
-        <v>0.519</v>
+        <v>0.482</v>
       </c>
       <c r="Q15">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R15">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="S15">
-        <v>0.27</v>
+        <v>0.182</v>
       </c>
       <c r="T15">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="U15">
-        <v>21.5</v>
+        <v>27</v>
       </c>
       <c r="V15">
-        <v>0.533</v>
+        <v>0.491</v>
       </c>
       <c r="W15">
-        <v>0.526</v>
+        <v>0.484</v>
       </c>
       <c r="X15">
-        <v>6.1</v>
+        <v>10.2</v>
       </c>
       <c r="Y15">
-        <v>7.4</v>
+        <v>11.9</v>
       </c>
       <c r="Z15">
-        <v>0.832</v>
+        <v>0.857</v>
       </c>
       <c r="AA15">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="AB15">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="AC15">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD15">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="AE15">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="AF15">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AG15">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH15">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AI15">
-        <v>30.1</v>
+        <v>37.1</v>
       </c>
       <c r="AJ15" t="s">
         <v>73</v>
@@ -2387,7 +2387,7 @@
         <v>75</v>
       </c>
       <c r="AM15">
-        <v>1992</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2398,7 +2398,7 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -2407,7 +2407,7 @@
         <v>1963</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>40</v>
@@ -2419,7 +2419,7 @@
         <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K16">
         <v>82</v>
